--- a/medicine/Enfance/Aurélia_Grandin/Aurélia_Grandin.xlsx
+++ b/medicine/Enfance/Aurélia_Grandin/Aurélia_Grandin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lia_Grandin</t>
+          <t>Aurélia_Grandin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélia Grandin, née le 19 novembre 1974, est une artiste française, illustratrice et auteure d'ouvrages jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lia_Grandin</t>
+          <t>Aurélia_Grandin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélia Grandin, diplômée de l'École Estienne à Paris, vit dans le Finistère. Elle a réalisé de nombreuses illustrations pour la presse, affiches et pochettes de disques, notamment pour les Ogres de Barback, ainsi que des livres pour enfants, comme Le musée de la baleine, Le mangeur de girafe, ou Le tour du monde d'Emile. Elle a également illustré Le poil de moustache du tigre sur un texte de Muriel Bloch, Siestes, La terrible histoire du boucher sur des textes de Marie-Aude Jauze, Les Aventuriers de l'alphabet sur un texte de Pierre Gamarra, avec une musique composée et interprétée par Fronfrède et Becker.
 Aurélia Grandin a été invitée d'honneur de la Fête du livre jeunesse de Villeurbanne en 2005 sur le thème « Langages ». Elle en a réalisé le visuel et présenté une exposition à la Maison du livre, de l'image et du son de la même ville.
-En 2008, lors de la publication de En vacances chez tata Lucienne, qu'elle a écrit et illustré, Martine Laval, dans son avis critique de Télérama écrit alors : « Comme dans ses précédents albums, Raymond, pêcheur d'amour et de sardines et Le Plus Grand des petits cirques, l'insolente Aurélia Grandin s'amuse, virevolte entre poésie et drôlerie. Son style, c'est l'inattendu, le choc des couleurs, le détournement des perspectives. Elle marie illustrations et collages[1]. »
+En 2008, lors de la publication de En vacances chez tata Lucienne, qu'elle a écrit et illustré, Martine Laval, dans son avis critique de Télérama écrit alors : « Comme dans ses précédents albums, Raymond, pêcheur d'amour et de sardines et Le Plus Grand des petits cirques, l'insolente Aurélia Grandin s'amuse, virevolte entre poésie et drôlerie. Son style, c'est l'inattendu, le choc des couleurs, le détournement des perspectives. Elle marie illustrations et collages. »
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lia_Grandin</t>
+          <t>Aurélia_Grandin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,20 +560,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure et illustratrice
-Herbert et le chien-phoque, Éd. Colophon, 2005
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Herbert et le chien-phoque, Éd. Colophon, 2005
 Le Musée de la baleine, Éd. Albin Michel, 2001
 Le Mangeur de girafes, Éd. du Rouergue, coll. « 12 X 12 », 2002
 Raymond pêcheur d'amour &amp; de sardines, Rue du monde, 2003
-Le plus grand des petits cirques[2], Rue du monde, 2006
-En vacances chez tata Lucienne[1], Actes sud Junior, 2008
-Le jardin en chantier[3], Actes Sud junior, 2010
+Le plus grand des petits cirques, Rue du monde, 2006
+En vacances chez tata Lucienne, Actes sud Junior, 2008
+Le jardin en chantier, Actes Sud junior, 2010
  Mi et les quatre vallées, Actes Sud junior, 2011
  Le théâtre en carton, Didier Jeunesse, 2011
  L'île aux animaux étranges, l'Atelier du poisson soluble, 2014
-La fabuleuse histoire de Feuille et Mange-Tout, Irfan Le Label, 2020[4]
-Illustratrice
-L'Éventail diabolique, et autres contes, texte de Muriel Bloch, Syros, coll. « Paroles de conteurs », 1996
+La fabuleuse histoire de Feuille et Mange-Tout, Irfan Le Label, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aurélia_Grandin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aur%C3%A9lia_Grandin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Éventail diabolique, et autres contes, texte de Muriel Bloch, Syros, coll. « Paroles de conteurs », 1996
 Le Fantôme de Cantervile, texte de Oscar Wilde, Mille et Une Nuits, coll. La petite collection, 1997
 Le Apollinaire, textes de Guillaume Apollinaire, Mango Jeunesse, coll. « Albums Dada », 2000
 Le Poil de moustache du tigre, texte de Muriel Bloch, Albin Michel Jeunesse, coll. « Petits contes de sagesse », 2000
@@ -577,10 +630,44 @@
 Contes insolites et insolents, textes de Muriel Bloch, Syros, 2010
 La pittoresque histoire Pitt Ocha : conte de GG, texte et interprétation par les Ogres de Barback, livre-CD, Irfan Le Label, 2010
 Requin-baleine ou Comment naissent les petits frères, les petites sœurs et les étoiles filantes, texte de Alex Cousseau, Oskar, 2011
-Les ombrelles de Izumi, texte de Calouan, Editions du Lampion, coll. « Loupiotes », 2014[5]
-L'heure des contes, textes de Muriel Bloch, Syros, 2022
-Couvertures de pochettes de disques
-Quand la terre était jeune, texte lu par Claire Labalestra, Oui'Dire, 2019</t>
+Les ombrelles de Izumi, texte de Calouan, Editions du Lampion, coll. « Loupiotes », 2014
+L'heure des contes, textes de Muriel Bloch, Syros, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aurélia_Grandin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aur%C3%A9lia_Grandin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Couvertures de pochettes de disques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Quand la terre était jeune, texte lu par Claire Labalestra, Oui'Dire, 2019</t>
         </is>
       </c>
     </row>
